--- a/PipeLineCientistaDeDados.xlsx
+++ b/PipeLineCientistaDeDados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odair.colares\Documents\AnalistaDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E154D3D-CE61-4189-8A06-415826552367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1CF11-255B-420C-AD0F-74FDDD57EC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E1E37EBA-E5D6-49AF-87C4-288B8F653845}"/>
   </bookViews>
@@ -785,7 +785,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PipeLineCientistaDeDados.xlsx
+++ b/PipeLineCientistaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odair.colares\Documents\AnalistaDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B1CF11-255B-420C-AD0F-74FDDD57EC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802AED96-2D49-4637-ABDB-FB8187323589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E1E37EBA-E5D6-49AF-87C4-288B8F653845}"/>
   </bookViews>
@@ -36,33 +36,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
-    <t>Filtrar Linhas.</t>
-  </si>
-  <si>
-    <t>Selecionar colunas.</t>
-  </si>
-  <si>
-    <t>GroupBy.</t>
-  </si>
-  <si>
-    <t>Função Lambda.</t>
-  </si>
-  <si>
-    <t>União de dados (Merge e concat).</t>
-  </si>
-  <si>
-    <t>Biblioteca Pandas.</t>
-  </si>
-  <si>
     <t>Manipulando Dados:</t>
   </si>
   <si>
     <t>Analise de dados:</t>
   </si>
   <si>
-    <t>Bibliotecas Seaborn e Matplotlib.</t>
-  </si>
-  <si>
     <t>Geração de graficos.</t>
   </si>
   <si>
@@ -136,6 +115,27 @@
   </si>
   <si>
     <t>Apresentação de resultados.</t>
+  </si>
+  <si>
+    <t>Biblioteca Pandas Ok</t>
+  </si>
+  <si>
+    <t>Selecionar colunas Ok</t>
+  </si>
+  <si>
+    <t>Filtrar Linhas Ok</t>
+  </si>
+  <si>
+    <t>GroupBy Ok</t>
+  </si>
+  <si>
+    <t>União de dados (Merge e concat) Rev</t>
+  </si>
+  <si>
+    <t>Função Lambda Rev</t>
+  </si>
+  <si>
+    <t>Bibliotecas Seaborn e Matplotlib (Em estudo)</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>224652</xdr:colOff>
+      <xdr:colOff>224651</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
@@ -785,12 +785,13 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
@@ -798,13 +799,13 @@
     <row r="2" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="2"/>
@@ -812,13 +813,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -826,13 +827,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -840,13 +841,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -854,13 +855,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -868,13 +869,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -882,13 +883,13 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -896,13 +897,13 @@
     </row>
     <row r="10" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -910,7 +911,7 @@
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -922,13 +923,13 @@
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="2"/>
@@ -936,13 +937,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -950,7 +951,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -982,7 +983,7 @@
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="2"/>
@@ -994,7 +995,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1006,7 +1007,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1018,7 +1019,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1030,7 +1031,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1042,7 +1043,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1054,7 +1055,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1088,7 +1089,7 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="1"/>
@@ -1100,7 +1101,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1112,7 +1113,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1124,7 +1125,7 @@
     </row>
     <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>

--- a/PipeLineCientistaDeDados.xlsx
+++ b/PipeLineCientistaDeDados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\odair.colares\Documents\AnalistaDeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802AED96-2D49-4637-ABDB-FB8187323589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF974B9A-8ADF-46B2-855F-CAF84BA95993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{E1E37EBA-E5D6-49AF-87C4-288B8F653845}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,15 +43,6 @@
     <t>Analise de dados:</t>
   </si>
   <si>
-    <t>Geração de graficos.</t>
-  </si>
-  <si>
-    <t>Calculos de correlações.</t>
-  </si>
-  <si>
-    <t>Validação de hipotese.</t>
-  </si>
-  <si>
     <t>Machine Learning:</t>
   </si>
   <si>
@@ -135,7 +127,16 @@
     <t>Função Lambda Rev</t>
   </si>
   <si>
-    <t>Bibliotecas Seaborn e Matplotlib (Em estudo)</t>
+    <t>Biblioteca PlotLy Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geração de graficos Ok </t>
+  </si>
+  <si>
+    <t>Calculos de correlações (Faltante)</t>
+  </si>
+  <si>
+    <t>Validação de hipotese  (Faltante)</t>
   </si>
 </sst>
 </file>
@@ -785,7 +786,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,7 +806,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="2"/>
@@ -813,13 +814,13 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -827,13 +828,13 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -841,13 +842,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -855,13 +856,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -869,13 +870,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -883,13 +884,13 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -903,7 +904,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -911,7 +912,7 @@
     </row>
     <row r="11" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -923,13 +924,13 @@
     </row>
     <row r="12" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="5"/>
       <c r="F12" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="2"/>
@@ -937,13 +938,13 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -951,7 +952,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -983,7 +984,7 @@
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="2"/>
@@ -995,7 +996,7 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1007,7 +1008,7 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1019,7 +1020,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1031,7 +1032,7 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1043,7 +1044,7 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1055,7 +1056,7 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1067,7 +1068,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1089,7 +1090,7 @@
     </row>
     <row r="26" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="1"/>
@@ -1101,7 +1102,7 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1113,7 +1114,7 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1125,7 +1126,7 @@
     </row>
     <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
